--- a/prepare/reservoirs/reservoir data from usgs, source and notes.xlsx
+++ b/prepare/reservoirs/reservoir data from usgs, source and notes.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ipsitakumar/awash/data/reservoirs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26004"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="14940" windowHeight="14380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="38">
   <si>
     <t>usgsres</t>
   </si>
@@ -138,9 +133,6 @@
   </si>
   <si>
     <t>CANNOT FIND DATA after 1998 ------- REMOVING THIS FROM THE DATASET</t>
-  </si>
-  <si>
-    <t>CANNOT FIND DATA------- REMOVING THIS FROM THE DATASET</t>
   </si>
   <si>
     <t>Barker Reservoir is a flood control lake. It is not used for water supply and under normal conditions it is empty. ------- REMOVING THIS FROM THE DATASET</t>
@@ -271,7 +263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -306,7 +298,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -483,7 +475,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -491,13 +483,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="3" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -511,7 +503,7 @@
     <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="31" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -543,7 +535,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -572,7 +564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -601,7 +593,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -630,7 +622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
@@ -659,7 +651,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
@@ -688,7 +680,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="8" t="s">
         <v>0</v>
       </c>
@@ -717,7 +709,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -746,7 +738,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -772,7 +764,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="48">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -801,7 +793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -827,7 +819,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -853,7 +845,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -879,7 +871,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -908,7 +900,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -937,7 +929,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -963,7 +955,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -989,7 +981,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1015,7 +1007,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1044,7 +1036,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1070,7 +1062,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1099,7 +1091,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1128,7 +1120,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -1154,7 +1146,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" s="8" customFormat="1">
       <c r="A24" s="8" t="s">
         <v>0</v>
       </c>
@@ -1180,7 +1172,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -1206,7 +1198,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1232,7 +1224,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -1258,111 +1250,92 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" s="6" customFormat="1">
       <c r="A28" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="6">
-        <v>15225990</v>
+        <v>8180010</v>
       </c>
       <c r="C28" s="6">
-        <v>49.727808000000003</v>
+        <v>1680.9035100000001</v>
       </c>
       <c r="D28" s="6">
-        <v>61.073086799999999</v>
+        <v>29.510230570000001</v>
       </c>
       <c r="E28" s="6">
-        <v>-146.3042356</v>
+        <v>-98.9014174</v>
       </c>
       <c r="F28" s="6">
-        <v>198.12</v>
+        <v>307.84800000000001</v>
       </c>
       <c r="G28" s="7"/>
       <c r="J28" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="6" customFormat="1">
+      <c r="A29" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="6">
+        <v>8202800</v>
+      </c>
+      <c r="C29" s="6">
+        <v>25.899899999999999</v>
+      </c>
+      <c r="D29" s="6">
+        <v>29.4452316</v>
+      </c>
+      <c r="E29" s="6">
+        <v>-99.252817399999998</v>
+      </c>
+      <c r="F29" s="6">
+        <v>299.322744</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="I29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="6" customFormat="1" ht="32">
+      <c r="A30" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="6">
+        <v>8072500</v>
+      </c>
+      <c r="C30" s="6">
+        <v>331.51871999999997</v>
+      </c>
+      <c r="D30" s="6">
+        <v>29.769951290000002</v>
+      </c>
+      <c r="E30" s="6">
+        <v>-95.647168199999996</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7">
+        <v>7470</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="6" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="6">
-        <v>8180010</v>
-      </c>
-      <c r="C29" s="6">
-        <v>1680.9035100000001</v>
-      </c>
-      <c r="D29" s="6">
-        <v>29.510230570000001</v>
-      </c>
-      <c r="E29" s="6">
-        <v>-98.9014174</v>
-      </c>
-      <c r="F29" s="6">
-        <v>307.84800000000001</v>
-      </c>
-      <c r="G29" s="7"/>
-      <c r="J29" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="6">
-        <v>8202800</v>
-      </c>
-      <c r="C30" s="6">
-        <v>25.899899999999999</v>
-      </c>
-      <c r="D30" s="6">
-        <v>29.4452316</v>
-      </c>
-      <c r="E30" s="6">
-        <v>-99.252817399999998</v>
-      </c>
-      <c r="F30" s="6">
-        <v>299.322744</v>
-      </c>
-      <c r="G30" s="7"/>
-      <c r="I30" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="6">
-        <v>8072500</v>
-      </c>
-      <c r="C31" s="6">
-        <v>331.51871999999997</v>
-      </c>
-      <c r="D31" s="6">
-        <v>29.769951290000002</v>
-      </c>
-      <c r="E31" s="6">
-        <v>-95.647168199999996</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G31" s="7">
-        <v>7470</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>